--- a/02_MasterWifoMannheim/99_Backup/Course64.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course64.xlsx
@@ -1,133 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3D0DB4B639A2011598FE8F5515BFF60" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7D5B7F6-3241-47A6-8769-AAC7C97345DC}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>TAX 660 Tax Planning: The Role of Taxes for Business Decisions</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>Most finance and strategy courses do not consider the role of taxes in making business decisions. The goal of the course is to understand how taxes affect business decisions. particular, the course teaches the tools for identifying, understanding, and evaluating tax planning opportunities. change, and the taught framework is portable in that it can be applied to the set of tax laws in any country. Taxes are everywhere and have a direct impact on cash-flow. of how taxation affects business decisions is therefore very important and contributes to a solid financial literacy. The role of taxes is applied to different decision contexts, such as investment, organizational form, mergers and acquisitions and multinational aspects. The impact of taxes on these decisions will always be considered in the context of the following themes: ‘All Parties’ (the tax implications for all of the involved parties have to be considered), ‘All Taxes’ (explicit and implicit taxes have to be considered), and ‘All Costs’ (all costs, tax and non-tax costs, have to be considered). All aspects of the course will discuss empirical applications. Large parts of the course will be based on the following textbook that is used in the leading business schools around the world: Scholes, Wolfson, Erickson, Hanlon, Maydew and Shevlin: Taxes and Business Strategy: A Planning Approach. The class features a guest lecture by a partner of a big-4 accounting firm</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>Understand how taxes affect business decisions.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registrationFurther Information on registration</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 4 8</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (90 min.)</t>
-  </si>
-  <si>
-    <t>Preliminary course work</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Philipp Dörrenberg</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Fall semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ., LL.M.</t>
-  </si>
-  <si>
-    <t>Accounting and Taxation (AAT)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -142,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,137 +420,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TAX 660 Tax Planning: The Role of Taxes for Business Decisions</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Most finance and strategy courses do not consider the role of taxes in making business decisions. The goal of the course is to understand how taxes affect business decisions. particular, the course teaches the tools for identifying, understanding, and evaluating tax planning opportunities. change, and the taught framework is portable in that it can be applied to the set of tax laws in any country. Taxes are everywhere and have a direct impact on cash-flow. of how taxation affects business decisions is therefore very important and contributes to a solid financial literacy. The role of taxes is applied to different decision contexts, such as investment, organizational form, mergers and acquisitions and multinational aspects. The impact of taxes on these decisions will always be considered in the context of the following themes: ‘All Parties’ (the tax implications for all of the involved parties have to be considered), ‘All Taxes’ (explicit and implicit taxes have to be considered), and ‘All Costs’ (all costs, tax and non-tax costs, have to be considered). All aspects of the course will discuss empirical applications. Large parts of the course will be based on the following textbook that is used in the leading business schools around the world: Scholes, Wolfson, Erickson, Hanlon, Maydew and Shevlin: Taxes and Business Strategy: A Planning Approach. The class features a guest lecture by a partner of a big-4 accounting firm</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Understand how taxes affect business decisions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Accounting and Taxation (AAT)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registrationFurther Information on registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 4 8</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written exam (90 min.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Philipp Dörrenberg</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ., LL.M.</t>
+        </is>
       </c>
     </row>
   </sheetData>
